--- a/biology/Médecine/Plan_hôpital_2007/Plan_hôpital_2007.xlsx
+++ b/biology/Médecine/Plan_hôpital_2007/Plan_hôpital_2007.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan_h%C3%B4pital_2007</t>
+          <t>Plan_hôpital_2007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plan hôpital 2007 est une série de mesures annoncées en France le 4 septembre 2003, visant à moderniser l’offre de soins[1]. Il s’agit notamment de réduire l’augmentation des dépenses de santé qui ne cesse de croître depuis plusieurs décennies. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plan hôpital 2007 est une série de mesures annoncées en France le 4 septembre 2003, visant à moderniser l’offre de soins. Il s’agit notamment de réduire l’augmentation des dépenses de santé qui ne cesse de croître depuis plusieurs décennies. 
 On retrouve parmi ces mesures l’instauration de :
 la nouvelle gouvernance hospitalière, avec l’amélioration de la concertation direction / médecins dans la prise de décision stratégique ainsi que le développement de la souplesse de fonctionnement et de la responsabilité médico-économique des services (création des pôles d’activité);
 la tarification à l'activité, visant à lier les moyens d’un établissement (dépenses) à son activité (recettes tirées des tarifs nationaux par pathologies).
